--- a/Planning/Skills Audit/Individual Skill Audit/Version1/Skills Audit (Sandesh Paudel).xlsx
+++ b/Planning/Skills Audit/Individual Skill Audit/Version1/Skills Audit (Sandesh Paudel).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bsc Computing\Sem 6\Team Project\Project\CleckFreshMart\Planning\Skills Audit\Individual Skill Audit\Version1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA08CD21-4EF7-4233-B306-CF7182CE9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A0F2E-8504-4D13-BE83-50B6635CB9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="24" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>Skill Level: 1 (No Knowledge) - 5 (Competent)</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Helps in efficient video editing which might be helpful for the project</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -345,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -483,34 +486,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,13 +608,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -917,733 +976,718 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="17" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>8</v>
       </c>
       <c r="G7" s="7">
         <v>44998</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>2</v>
       </c>
       <c r="G8" s="7">
         <v>44992</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
       <c r="G9" s="7">
         <v>44995</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>2.5</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>7</v>
       </c>
       <c r="G10" s="7">
         <v>45005</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="7">
         <v>44995</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="7">
         <v>44993</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>10</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>45006</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>2</v>
       </c>
       <c r="G14" s="7">
         <v>44995</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44995</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>44995</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="13">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="G17" s="14">
+        <v>44993</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="13">
+        <v>7</v>
+      </c>
+      <c r="G18" s="14">
+        <v>45010</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>44992</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>13</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="D20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>44993</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="13">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="13">
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G21" s="14">
         <v>44995</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="e">
-        <f t="shared" ref="A12:A27" si="0">A15+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="H21" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="13">
         <v>3.5</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="D22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>44993</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>44992</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>17</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="13">
+        <v>6</v>
+      </c>
+      <c r="G24" s="14">
+        <v>45000</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>44995</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>19</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13">
+        <v>4</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>44995</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="13">
+        <v>4</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15">
+        <v>44992</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>21</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>44995</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>22</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="13">
         <v>2</v>
       </c>
-      <c r="G16" s="7">
-        <v>44995</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22">
-        <v>44993</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7</v>
-      </c>
-      <c r="G18" s="22">
-        <v>45010</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22">
-        <v>44992</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="22">
-        <v>44993</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="22">
-        <v>44995</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22">
-        <v>44993</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="G29" s="15">
+        <v>45000</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="12">
+        <f>SUM(F7:F29)</f>
         <v>69</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23">
-        <v>44992</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
-      </c>
-      <c r="G24" s="22">
-        <v>45000</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="22">
-        <v>44995</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="e">
-        <f>A25+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="22">
-        <v>44995</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="e">
-        <f>A26+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="23">
-        <v>44992</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="e">
-        <f>A27+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23">
-        <v>44995</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="e">
-        <f t="shared" ref="A29:A35" si="1">A28+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="23">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A35" s="3"/>
     </row>
     <row r="40" spans="1:1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/Planning/Skills Audit/Individual Skill Audit/Version1/Skills Audit (Sandesh Paudel).xlsx
+++ b/Planning/Skills Audit/Individual Skill Audit/Version1/Skills Audit (Sandesh Paudel).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bsc Computing\Sem 6\Team Project\Project\CleckFreshMart\Planning\Skills Audit\Individual Skill Audit\Version1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A0F2E-8504-4D13-BE83-50B6635CB9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6128FDD2-54EF-422C-8E21-74DB94CEB664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="12" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="13" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="14" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>32</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="16" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>33</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="17" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>34</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="18" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>35</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="19" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>36</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="20" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>37</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="21" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>38</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="22" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>39</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="23" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>40</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="24" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>41</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>42</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="26" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>43</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>44</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="28" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>45</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="29" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>46</v>
